--- a/Code/Results/Cases/Case_11_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_11_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.457262170408171</v>
+        <v>2.570081015493827</v>
       </c>
       <c r="C2">
-        <v>1.007702210158641</v>
+        <v>0.5119154290372023</v>
       </c>
       <c r="D2">
-        <v>0.3492156199738474</v>
+        <v>0.02173996954248025</v>
       </c>
       <c r="E2">
-        <v>1.343180230842464</v>
+        <v>0.03466888253427103</v>
       </c>
       <c r="F2">
-        <v>6.463794665469322</v>
+        <v>1.164185190984995</v>
       </c>
       <c r="G2">
-        <v>0.0007918837209675011</v>
+        <v>0.9482311820088825</v>
       </c>
       <c r="H2">
-        <v>0.009995295743722019</v>
+        <v>0.01185610753908857</v>
       </c>
       <c r="I2">
-        <v>0.002670933310996659</v>
+        <v>0.01188138953420914</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6847512189627594</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6237099048186181</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.04503296155213121</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.06647953441390619</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2025141543827615</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4589918500776307</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.997853015548628</v>
+        <v>2.240294718453583</v>
       </c>
       <c r="C3">
-        <v>0.869853693225707</v>
+        <v>0.4484320410605278</v>
       </c>
       <c r="D3">
-        <v>0.3064966316520383</v>
+        <v>0.02033203807601325</v>
       </c>
       <c r="E3">
-        <v>1.155751310872887</v>
+        <v>0.03324322023060483</v>
       </c>
       <c r="F3">
-        <v>5.654258087503649</v>
+        <v>1.112941844955209</v>
       </c>
       <c r="G3">
-        <v>0.0007995267261627653</v>
+        <v>0.9011726129714646</v>
       </c>
       <c r="H3">
-        <v>0.00566132105441941</v>
+        <v>0.01553651940002643</v>
       </c>
       <c r="I3">
-        <v>0.0006838291904367466</v>
+        <v>0.01558953042728906</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6604029290362234</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6160028277472414</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05004583722241929</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.06334830458122731</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1812924806247835</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4014845141236378</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.717878933285135</v>
+        <v>2.037722518818498</v>
       </c>
       <c r="C4">
-        <v>0.7870470786523356</v>
+        <v>0.4097594402584264</v>
       </c>
       <c r="D4">
-        <v>0.2802437474734631</v>
+        <v>0.01948543983715822</v>
       </c>
       <c r="E4">
-        <v>1.042418103720038</v>
+        <v>0.03235678816291521</v>
       </c>
       <c r="F4">
-        <v>5.159655295851422</v>
+        <v>1.082038868394854</v>
       </c>
       <c r="G4">
-        <v>0.00080432863316101</v>
+        <v>0.8730438181161446</v>
       </c>
       <c r="H4">
-        <v>0.003562661497822361</v>
+        <v>0.01813062124651676</v>
       </c>
       <c r="I4">
-        <v>0.0004342247631967666</v>
+        <v>0.01825231978624808</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6455018828215486</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6115048921291582</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05415014422699826</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.06139657268485443</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1683484711146832</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3662249896056267</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.604150420224698</v>
+        <v>1.955050601697451</v>
       </c>
       <c r="C5">
-        <v>0.7552167163809997</v>
+        <v>0.3947628025470635</v>
       </c>
       <c r="D5">
-        <v>0.2683125171909211</v>
+        <v>0.0191774911405993</v>
       </c>
       <c r="E5">
-        <v>0.9965441341777392</v>
+        <v>0.03198538699599851</v>
       </c>
       <c r="F5">
-        <v>4.944718871251297</v>
+        <v>1.068125346746541</v>
       </c>
       <c r="G5">
-        <v>0.0008063365970838446</v>
+        <v>0.8602693561332444</v>
       </c>
       <c r="H5">
-        <v>0.00283109922356406</v>
+        <v>0.01927570223901048</v>
       </c>
       <c r="I5">
-        <v>0.000622890166188661</v>
+        <v>0.01953911883003823</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6386466091647804</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6087542120031628</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05608233423681774</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.06059439213008488</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1632706631931882</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3519675021427631</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.585207879043878</v>
+        <v>1.941216206764523</v>
       </c>
       <c r="C6">
-        <v>0.7518079961090791</v>
+        <v>0.3931282419356137</v>
       </c>
       <c r="D6">
-        <v>0.2648516623235935</v>
+        <v>0.01916704399207347</v>
       </c>
       <c r="E6">
-        <v>0.9888719871438241</v>
+        <v>0.03191507597396892</v>
       </c>
       <c r="F6">
-        <v>4.892255946361189</v>
+        <v>1.064049110934576</v>
       </c>
       <c r="G6">
-        <v>0.0008066988388415279</v>
+        <v>0.8563378997054798</v>
       </c>
       <c r="H6">
-        <v>0.002711539273524188</v>
+        <v>0.01947955711226618</v>
       </c>
       <c r="I6">
-        <v>0.0007586302123687716</v>
+        <v>0.01989976936815729</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6365398756659317</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6071132746188646</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05641890121778736</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.06046252293150811</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1626462082514308</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3497253900947612</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.716100113317282</v>
+        <v>2.036299610008825</v>
       </c>
       <c r="C7">
-        <v>0.7916813407236987</v>
+        <v>0.4113406554972698</v>
       </c>
       <c r="D7">
-        <v>0.2760110113271139</v>
+        <v>0.01969222097543621</v>
       </c>
       <c r="E7">
-        <v>1.041580167724106</v>
+        <v>0.03232258843596597</v>
       </c>
       <c r="F7">
-        <v>5.110605349627804</v>
+        <v>1.074322852837653</v>
       </c>
       <c r="G7">
-        <v>0.0008044293528601984</v>
+        <v>0.8705131234754759</v>
       </c>
       <c r="H7">
-        <v>0.00353482695453966</v>
+        <v>0.01818316112676743</v>
       </c>
       <c r="I7">
-        <v>0.0006621355425160402</v>
+        <v>0.01865086444679065</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6354472723706976</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6067529161104943</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05417514901378517</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.06137177895720924</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1688912007495702</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3663866651747938</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.297930760598206</v>
+        <v>2.455887967185902</v>
       </c>
       <c r="C8">
-        <v>0.9664754913100921</v>
+        <v>0.4912352570894143</v>
       </c>
       <c r="D8">
-        <v>0.3289524093292329</v>
+        <v>0.02173415069944085</v>
       </c>
       <c r="E8">
-        <v>1.277802295241244</v>
+        <v>0.0341305303004843</v>
       </c>
       <c r="F8">
-        <v>6.121670233424283</v>
+        <v>1.131091739585287</v>
       </c>
       <c r="G8">
-        <v>0.0007945947571169861</v>
+        <v>0.9341258037917299</v>
       </c>
       <c r="H8">
-        <v>0.00834023203055928</v>
+        <v>0.01311578975536751</v>
       </c>
       <c r="I8">
-        <v>0.001998973943032389</v>
+        <v>0.01355512650101787</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.648689282352251</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6118745370308005</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.04654930388579004</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.06535561277838475</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.196024330289589</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4396414670549547</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.461276162754871</v>
+        <v>3.279506233861639</v>
       </c>
       <c r="C9">
-        <v>1.317628976875312</v>
+        <v>0.6485327297086201</v>
       </c>
       <c r="D9">
-        <v>0.4409129175473083</v>
+        <v>0.02533163091790769</v>
       </c>
       <c r="E9">
-        <v>1.758791490145597</v>
+        <v>0.03767243643886686</v>
       </c>
       <c r="F9">
-        <v>8.221729476999883</v>
+        <v>1.265707301645989</v>
       </c>
       <c r="G9">
-        <v>0.0007759650060087116</v>
+        <v>1.065000656838436</v>
       </c>
       <c r="H9">
-        <v>0.02293966575955908</v>
+        <v>0.005909222694436</v>
       </c>
       <c r="I9">
-        <v>0.01318788530029646</v>
+        <v>0.006200595485069904</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7058962920258409</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6350391363027157</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.03967238090657915</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.07302748337502152</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2488902388036252</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.583210968252807</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.332556541617578</v>
+        <v>3.888767497193271</v>
       </c>
       <c r="C10">
-        <v>1.589096750276838</v>
+        <v>0.7681084384416579</v>
       </c>
       <c r="D10">
-        <v>0.5003877811189454</v>
+        <v>0.02853294458375899</v>
       </c>
       <c r="E10">
-        <v>2.021280822810638</v>
+        <v>0.04007758938528944</v>
       </c>
       <c r="F10">
-        <v>9.52940342855976</v>
+        <v>1.327393936334801</v>
       </c>
       <c r="G10">
-        <v>0.0007632755018147897</v>
+        <v>1.158462683333298</v>
       </c>
       <c r="H10">
-        <v>0.03654587955837574</v>
+        <v>0.002898752667051419</v>
       </c>
       <c r="I10">
-        <v>0.02786243332301552</v>
+        <v>0.003290418006862694</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6951006219015028</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6315130654325642</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.03945751483081583</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.07931851533579426</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2810126281473089</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6851053081832887</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.696287717332439</v>
+        <v>4.193558127896438</v>
       </c>
       <c r="C11">
-        <v>1.68929629314573</v>
+        <v>0.8553007208764427</v>
       </c>
       <c r="D11">
-        <v>0.3475534396946358</v>
+        <v>0.02912592587689744</v>
       </c>
       <c r="E11">
-        <v>1.319623735495057</v>
+        <v>0.04177917448746005</v>
       </c>
       <c r="F11">
-        <v>7.984121445527933</v>
+        <v>1.133616919654585</v>
       </c>
       <c r="G11">
-        <v>0.0007625219121048961</v>
+        <v>1.038043473737531</v>
       </c>
       <c r="H11">
-        <v>0.05102710592101189</v>
+        <v>0.02122954636320173</v>
       </c>
       <c r="I11">
-        <v>0.02986244529849014</v>
+        <v>0.003330965509423578</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5427003299726323</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5158297178202815</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0403922029264443</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09535205646083966</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2328660023866291</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6934364088119267</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.821453138132654</v>
+        <v>4.323737112708727</v>
       </c>
       <c r="C12">
-        <v>1.71081905899149</v>
+        <v>0.9034190181226052</v>
       </c>
       <c r="D12">
-        <v>0.2378295168972926</v>
+        <v>0.02832606864292586</v>
       </c>
       <c r="E12">
-        <v>0.8095450099342685</v>
+        <v>0.04550523568989018</v>
       </c>
       <c r="F12">
-        <v>6.621540193137264</v>
+        <v>0.9843367749249126</v>
       </c>
       <c r="G12">
-        <v>0.0007639042150792652</v>
+        <v>0.9194523966105805</v>
       </c>
       <c r="H12">
-        <v>0.08537059510579326</v>
+        <v>0.05998597733203326</v>
       </c>
       <c r="I12">
-        <v>0.02834500312373667</v>
+        <v>0.003218911030174354</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4567288220854522</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4385756683771156</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.04089309283869458</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1157459964991432</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1890172010391282</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6777784854338407</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.769062860697261</v>
+        <v>4.32532837290978</v>
       </c>
       <c r="C13">
-        <v>1.681431827745541</v>
+        <v>0.929246026535651</v>
       </c>
       <c r="D13">
-        <v>0.1489218976295632</v>
+        <v>0.02640543019970565</v>
       </c>
       <c r="E13">
-        <v>0.4192333535295205</v>
+        <v>0.05104446356195957</v>
       </c>
       <c r="F13">
-        <v>5.257492853800528</v>
+        <v>0.8558033119699857</v>
       </c>
       <c r="G13">
-        <v>0.0007670939994285801</v>
+        <v>0.7834885324404155</v>
       </c>
       <c r="H13">
-        <v>0.1363447470369579</v>
+        <v>0.1161003881402962</v>
       </c>
       <c r="I13">
-        <v>0.02441139653021018</v>
+        <v>0.003418577184452154</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4133228774773556</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3814113915113744</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.04077870592103938</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1400892098705242</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1471397996728641</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6433908343868424</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.653258874752623</v>
+        <v>4.268035606463741</v>
       </c>
       <c r="C14">
-        <v>1.640501665964337</v>
+        <v>0.938085398331225</v>
       </c>
       <c r="D14">
-        <v>0.09914364752189897</v>
+        <v>0.02468073782171842</v>
       </c>
       <c r="E14">
-        <v>0.2200208786317432</v>
+        <v>0.05612547726474659</v>
       </c>
       <c r="F14">
-        <v>4.320288365004302</v>
+        <v>0.7740095269612226</v>
       </c>
       <c r="G14">
-        <v>0.0007700778533965794</v>
+        <v>0.6832270555631652</v>
       </c>
       <c r="H14">
-        <v>0.18241339872894</v>
+        <v>0.1658378701304457</v>
       </c>
       <c r="I14">
-        <v>0.02096641771609153</v>
+        <v>0.003832930160654335</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3972750409359946</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3497125200237328</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.04043047512220799</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1597080339134749</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1197635624459252</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6111238728264112</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.587027398541977</v>
+        <v>4.226309036495593</v>
       </c>
       <c r="C15">
-        <v>1.621696695691526</v>
+        <v>0.9361909035833946</v>
       </c>
       <c r="D15">
-        <v>0.08790478637317278</v>
+        <v>0.02411408851124008</v>
       </c>
       <c r="E15">
-        <v>0.180148105521539</v>
+        <v>0.05739971399542654</v>
       </c>
       <c r="F15">
-        <v>4.065077586257132</v>
+        <v>0.7550531662747346</v>
       </c>
       <c r="G15">
-        <v>0.0007712711082461959</v>
+        <v>0.6543757628549116</v>
       </c>
       <c r="H15">
-        <v>0.1938160907104987</v>
+        <v>0.1785489583297846</v>
       </c>
       <c r="I15">
-        <v>0.01972158660848322</v>
+        <v>0.004174399515186167</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3983316342256273</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3437809898158228</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.04023626526702095</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1642928949267883</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.11313476996893</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5995452562729824</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.224085017559617</v>
+        <v>3.962052085861842</v>
       </c>
       <c r="C16">
-        <v>1.516492032032318</v>
+        <v>0.8854282649436129</v>
       </c>
       <c r="D16">
-        <v>0.08526566423042681</v>
+        <v>0.0225204486125552</v>
       </c>
       <c r="E16">
-        <v>0.1700411051112454</v>
+        <v>0.05539276233109547</v>
       </c>
       <c r="F16">
-        <v>3.828971836814645</v>
+        <v>0.7693019788007831</v>
       </c>
       <c r="G16">
-        <v>0.00077591099244641</v>
+        <v>0.6230261840428426</v>
       </c>
       <c r="H16">
-        <v>0.1772398316277872</v>
+        <v>0.1669909627493951</v>
       </c>
       <c r="I16">
-        <v>0.01491254195543057</v>
+        <v>0.005371171202781078</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.447297109571295</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3615862908347509</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.03941707583436216</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1554468953398427</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1092641650762971</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5636602564081485</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.007352928785792</v>
+        <v>3.790363179828432</v>
       </c>
       <c r="C17">
-        <v>1.457340512143503</v>
+        <v>0.8408998195437221</v>
       </c>
       <c r="D17">
-        <v>0.1063005318635462</v>
+        <v>0.02227733174263591</v>
       </c>
       <c r="E17">
-        <v>0.2527426306022065</v>
+        <v>0.05081240802216058</v>
       </c>
       <c r="F17">
-        <v>4.119620197415884</v>
+        <v>0.8214046379601072</v>
       </c>
       <c r="G17">
-        <v>0.0007779609381707517</v>
+        <v>0.6526369048358731</v>
       </c>
       <c r="H17">
-        <v>0.1380845818779335</v>
+        <v>0.1299623866518118</v>
       </c>
       <c r="I17">
-        <v>0.01298819220147251</v>
+        <v>0.006150637739539278</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.491638108108944</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3914806872932637</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.03917787572528741</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1378797855281348</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1202420020624402</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5532314969948189</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.891181072940014</v>
+        <v>3.678933118713189</v>
       </c>
       <c r="C18">
-        <v>1.426784906721878</v>
+        <v>0.796425839861655</v>
       </c>
       <c r="D18">
-        <v>0.1630917184647416</v>
+        <v>0.02288936194156932</v>
       </c>
       <c r="E18">
-        <v>0.488672800946965</v>
+        <v>0.04489041929556414</v>
       </c>
       <c r="F18">
-        <v>4.989782952390868</v>
+        <v>0.9241465221390968</v>
       </c>
       <c r="G18">
-        <v>0.0007777175351106891</v>
+        <v>0.7397824307980159</v>
       </c>
       <c r="H18">
-        <v>0.08624958060428156</v>
+        <v>0.07737327624358414</v>
       </c>
       <c r="I18">
-        <v>0.0128610273449894</v>
+        <v>0.006132057190472828</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5499471288558482</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.442979122458393</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.03913756153441361</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1142530039054677</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1473330818986369</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5630477942584378</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.865410637195282</v>
+        <v>3.623553019274993</v>
       </c>
       <c r="C19">
-        <v>1.433989826580387</v>
+        <v>0.7617030884651683</v>
       </c>
       <c r="D19">
-        <v>0.2585924094822332</v>
+        <v>0.0242924679261094</v>
       </c>
       <c r="E19">
-        <v>0.9316599478342198</v>
+        <v>0.04034973579265255</v>
       </c>
       <c r="F19">
-        <v>6.311405617291229</v>
+        <v>1.06216159585918</v>
       </c>
       <c r="G19">
-        <v>0.0007753471943131185</v>
+        <v>0.8649200049637784</v>
       </c>
       <c r="H19">
-        <v>0.04486607482094485</v>
+        <v>0.03171967984008717</v>
       </c>
       <c r="I19">
-        <v>0.01491509726212481</v>
+        <v>0.006112781458337935</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6186748144915128</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5109910027990665</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.03914066407849726</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0932623912599837</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1901341399236642</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5890902005467424</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.100185226391659</v>
+        <v>3.727869761552427</v>
       </c>
       <c r="C20">
-        <v>1.532472938516833</v>
+        <v>0.7462494612556441</v>
       </c>
       <c r="D20">
-        <v>0.4702190910753643</v>
+        <v>0.02764797052241974</v>
       </c>
       <c r="E20">
-        <v>1.945769640609583</v>
+        <v>0.03939378337503741</v>
       </c>
       <c r="F20">
-        <v>9.0203272447026</v>
+        <v>1.304735357350779</v>
       </c>
       <c r="G20">
-        <v>0.0007668416119520997</v>
+        <v>1.107129950516665</v>
       </c>
       <c r="H20">
-        <v>0.03244554102579755</v>
+        <v>0.003554681291040307</v>
       </c>
       <c r="I20">
-        <v>0.02379408360536761</v>
+        <v>0.004918846747374417</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7150197518021884</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6272276914009751</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.03919328322222526</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.07781237269391994</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2740435715746656</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6591626960377255</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.784892976581773</v>
+        <v>4.190624612778493</v>
       </c>
       <c r="C21">
-        <v>1.750257957264921</v>
+        <v>0.8206545509472676</v>
       </c>
       <c r="D21">
-        <v>0.5534414014092022</v>
+        <v>0.03259278391669085</v>
       </c>
       <c r="E21">
-        <v>2.318371252717682</v>
+        <v>0.04142603717008619</v>
       </c>
       <c r="F21">
-        <v>10.45960704905036</v>
+        <v>1.341750584357442</v>
       </c>
       <c r="G21">
-        <v>0.000756201365715177</v>
+        <v>1.272559939599006</v>
       </c>
       <c r="H21">
-        <v>0.0464444912688986</v>
+        <v>0.001513960459358588</v>
       </c>
       <c r="I21">
-        <v>0.03888522512563775</v>
+        <v>0.003214851701528687</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6001582899001363</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.619189336410912</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.04052878297815088</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.08112268443729143</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.310860542179924</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7443861274810786</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.238143054835405</v>
+        <v>4.495686947907927</v>
       </c>
       <c r="C22">
-        <v>1.888477988335353</v>
+        <v>0.86775534687402</v>
       </c>
       <c r="D22">
-        <v>0.6034973891750326</v>
+        <v>0.03591253929862503</v>
       </c>
       <c r="E22">
-        <v>2.513470465521181</v>
+        <v>0.04274169370676939</v>
       </c>
       <c r="F22">
-        <v>11.35561038052936</v>
+        <v>1.356841486878992</v>
       </c>
       <c r="G22">
-        <v>0.0007494717359220136</v>
+        <v>1.385343027763895</v>
       </c>
       <c r="H22">
-        <v>0.05622256578920748</v>
+        <v>0.0007153818362428677</v>
       </c>
       <c r="I22">
-        <v>0.05032041316143676</v>
+        <v>0.002177415555860485</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5238913257333451</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6099870385913917</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.04225741429945806</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.08368729737912872</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3303763767927137</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7975983416801071</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.996341369730999</v>
+        <v>4.333340210227789</v>
       </c>
       <c r="C23">
-        <v>1.808243448853432</v>
+        <v>0.8412502163241982</v>
       </c>
       <c r="D23">
-        <v>0.5820632899846885</v>
+        <v>0.03365871283001098</v>
       </c>
       <c r="E23">
-        <v>2.409407682906746</v>
+        <v>0.04206692672812729</v>
       </c>
       <c r="F23">
-        <v>10.93547678253219</v>
+        <v>1.361172158299809</v>
       </c>
       <c r="G23">
-        <v>0.0007529736297253577</v>
+        <v>1.322813232567995</v>
       </c>
       <c r="H23">
-        <v>0.05097258498324031</v>
+        <v>0.001092336151129247</v>
       </c>
       <c r="I23">
-        <v>0.04393539907997379</v>
+        <v>0.002294097422561592</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5814495095173271</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6220637322209086</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.04125700356327755</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.08232329352859402</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.319171857631261</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7687515437927175</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.093396454990398</v>
+        <v>3.718433485601622</v>
       </c>
       <c r="C24">
-        <v>1.522929633599688</v>
+        <v>0.7375614172655105</v>
       </c>
       <c r="D24">
-        <v>0.494095960497134</v>
+        <v>0.02757322860319888</v>
       </c>
       <c r="E24">
-        <v>2.024357664267967</v>
+        <v>0.03951494172134495</v>
       </c>
       <c r="F24">
-        <v>9.282577626360364</v>
+        <v>1.330440091556468</v>
       </c>
       <c r="G24">
-        <v>0.0007664096614360714</v>
+        <v>1.131060746856861</v>
       </c>
       <c r="H24">
-        <v>0.03328234609949288</v>
+        <v>0.003353171786382947</v>
       </c>
       <c r="I24">
-        <v>0.02388743652415215</v>
+        <v>0.004269075367548503</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7287699742849298</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6423464976765629</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.03918601460529203</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.07708652883037281</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2784896684393772</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6606493322903404</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.142656613778001</v>
+        <v>3.056006462809989</v>
       </c>
       <c r="C25">
-        <v>1.229542174013773</v>
+        <v>0.6107155882010318</v>
       </c>
       <c r="D25">
-        <v>0.4026513398619613</v>
+        <v>0.02439430782684937</v>
       </c>
       <c r="E25">
-        <v>1.625711697670212</v>
+        <v>0.03668680705345384</v>
       </c>
       <c r="F25">
-        <v>7.560761790821061</v>
+        <v>1.223844827672551</v>
       </c>
       <c r="G25">
-        <v>0.0007810655889403182</v>
+        <v>1.015861448970895</v>
       </c>
       <c r="H25">
-        <v>0.01826779157226266</v>
+        <v>0.007545790565258254</v>
       </c>
       <c r="I25">
-        <v>0.009293847328576632</v>
+        <v>0.008393772063391758</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6960848367683496</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6248620965987328</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.04067702969877529</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.0710150592930141</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2355606564536572</v>
       </c>
       <c r="Q25">
+        <v>0.5448878634645382</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
